--- a/CMAP_variableMetadata_additions.xlsx
+++ b/CMAP_variableMetadata_additions.xlsx
@@ -8,26 +8,104 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klongnecker\Documents\Dropbox\GitHub_espresso\DeepDOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ACC11B-5D38-40B8-ACBA-547AE61CA4E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0954E6-41AB-4030-B356-8107FE6781EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="notes" sheetId="4" r:id="rId1"/>
-    <sheet name="project" sheetId="5" r:id="rId2"/>
+    <sheet name="notes" sheetId="1" r:id="rId1"/>
+    <sheet name="project" sheetId="2" r:id="rId2"/>
     <sheet name="nutrients" sheetId="3" r:id="rId3"/>
-    <sheet name="viral_bact_counts" sheetId="6" r:id="rId4"/>
-    <sheet name="metabolites_dissolved" sheetId="7" r:id="rId5"/>
-    <sheet name="metabolites_particulate" sheetId="8" r:id="rId6"/>
-    <sheet name="TOS" sheetId="9" r:id="rId7"/>
-    <sheet name="CTD" sheetId="10" r:id="rId8"/>
+    <sheet name="viral_bact_counts" sheetId="4" r:id="rId4"/>
+    <sheet name="metabolites_dissolved" sheetId="5" r:id="rId5"/>
+    <sheet name="metabolites_particulate" sheetId="6" r:id="rId6"/>
+    <sheet name="TOS" sheetId="7" r:id="rId7"/>
+    <sheet name="CTD" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="282">
+  <si>
+    <t>CMAP has some additional metadata they want for each variable measured. There are so many that it makes the most sense to make a separate Excel file and read in the details, no good way to automate this.</t>
+  </si>
+  <si>
+    <t>Note: the original var_short_name came from the BCO-DMO submission, and I used the BCO-DMO information to make var_long_name, the other columns will be added manually. If there are new variables, this Excel file will have to be updated.</t>
+  </si>
+  <si>
+    <t>var_unit also comes from BCO-DMO.</t>
+  </si>
+  <si>
+    <t>Krista Longnecker, July 2025</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dataset_source</t>
+  </si>
+  <si>
+    <t>dataset_distributor</t>
+  </si>
+  <si>
+    <t>dataset_acknowledgement</t>
+  </si>
+  <si>
+    <t>dataset_references</t>
+  </si>
+  <si>
+    <t>nutrients</t>
+  </si>
+  <si>
+    <t>Elizabeth Kujawinski, Woods Hole Oceanographic Institution</t>
+  </si>
+  <si>
+    <t>Krista Longnecker, Woods Hole Oceanographic Institution</t>
+  </si>
+  <si>
+    <t>We thank Catherine Carmichael, Winifred Johnson, and Gretchen Swarr for assistance with sample collection and processing, and Joe Jennings for the analysis of inorganic nutrients. The help of the captain and crew of the R/V Knorr and the other cruise participants during the “DeepDOM” cruise is appreciated. This work supported by funding from the National Science Foundation.</t>
+  </si>
+  <si>
+    <t>(multiple publications)</t>
+  </si>
+  <si>
+    <t>viral_bact_counts</t>
+  </si>
+  <si>
+    <t>Ian Hewson, Cornell University</t>
+  </si>
+  <si>
+    <t>Erin Eggleston, Cornell University</t>
+  </si>
+  <si>
+    <t>The authors would like to thank the crew and lab groups onboard the R/V Knorr KN210-04 cruise. Brent Gudenkauf provided invaluable assistance with viral and bacterial abundance counts. Thanks also to Samuel Byrne and Sheila Saia for statistical assistance, and Evan Howard for oxygen calibration. Support for this research was provided by NSF OCE-0961894. Funding for the cruise was provided by NSF OCE-1154320 to E. Kujawinski and K. Longnecker (WHOI), NSF OCE-1356964 and NSF OCE-1537111 as support for publication costs.</t>
+  </si>
+  <si>
+    <t>Eggleston, E. M. and I. Hewson (2016). "Abundance of Two Pelagibacter ubique Bacteriophage Genotypes along a Latitudinal Transect in the North and South Atlantic Oceans." Frontiers in Microbiology 7. DOI: 10.3389/fmicb.2016.01534.</t>
+  </si>
+  <si>
+    <t>metabolites_dissolved</t>
+  </si>
+  <si>
+    <t>Johnson, W. M., M. C. Kido Soule, K. Longnecker, M. P. Bhatia, S. J. Hallam, M. W. Lomas and E. B. Kujawinski (2023). "Particulate and dissolved metabolite distributions along a latitudinal transect of the western Atlantic Ocean." Limnology and Oceanography 68(2): 377-393. DOI: 10.1002/lno.12275.</t>
+  </si>
+  <si>
+    <t>metabolites_particulate</t>
+  </si>
+  <si>
+    <t>TOS</t>
+  </si>
+  <si>
+    <t>We thank Catherine Carmichael, Winifred Johnson, and Gretchen Swarr for assistance with sample collection and processing. The help of the captain and crew of the R/V Knorr and the other cruise participants during the “DeepDOM” cruise is appreciated. This work supported by funding from the National Science Foundation.</t>
+  </si>
+  <si>
+    <t>Longnecker, K., L. Oswald, M. C. Kido Soule, G. A. Cutter and E. B. Kujawinski (2020). "Organic sulfur: a spatially variable and understudied component of marine organic matter." Limnology and Oceanography Letters 5: 305-312. DOI: 10.1002/lol2.10149.</t>
+  </si>
+  <si>
+    <t>CTD</t>
+  </si>
   <si>
     <t>var_short_name</t>
   </si>
@@ -59,21 +137,15 @@
     <t>var_comment</t>
   </si>
   <si>
-    <t>CMAP has some additional metadata they want for each variable measured. There are so many that it makes the most sense to make a separate Excel file and read in the details, no good way to automate this.</t>
-  </si>
-  <si>
-    <t>Note: the original var_short_name came from the BCO-DMO submission, and I used the BCO-DMO information to make var_long_name, the other columns will be added manually. If there are new variables, this Excel file will have to be updated.</t>
-  </si>
-  <si>
-    <t>Krista Longnecker, July 2025</t>
-  </si>
-  <si>
-    <t>var_unit also comes from BCO-DMO.</t>
-  </si>
-  <si>
     <t>cast</t>
   </si>
   <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>KN210-04,  bio, biogeo, biogeochemistry, biology, Bottle, cruise, Discrete, in situ, insitu, in-situ, Western Atlantic Ocean, observation</t>
+  </si>
+  <si>
     <t>station</t>
   </si>
   <si>
@@ -92,12 +164,18 @@
     <t>press</t>
   </si>
   <si>
+    <t>physical</t>
+  </si>
+  <si>
     <t>bots</t>
   </si>
   <si>
     <t>PO4</t>
   </si>
   <si>
+    <t>chemistry</t>
+  </si>
+  <si>
     <t>NO3_NO2</t>
   </si>
   <si>
@@ -116,89 +194,692 @@
     <t>TN</t>
   </si>
   <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>physical</t>
-  </si>
-  <si>
-    <t>chemistry</t>
-  </si>
-  <si>
-    <t>KN210-04,  bio, biogeo, biogeochemistry, biology, Bottle, cruise, Discrete, in situ, insitu, in-situ, Western Atlantic Ocean, observation</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>dataset_source</t>
-  </si>
-  <si>
-    <t>dataset_distributor</t>
-  </si>
-  <si>
-    <t>dataset_acknowledgement</t>
-  </si>
-  <si>
-    <t>dataset_references</t>
-  </si>
-  <si>
-    <t>nutrients</t>
-  </si>
-  <si>
-    <t>Ian Hewson, Cornell University</t>
-  </si>
-  <si>
-    <t>Erin Eggleston, Cornell University</t>
-  </si>
-  <si>
-    <t>Elizabeth Kujawinski, Woods Hole Oceanographic Institution</t>
-  </si>
-  <si>
-    <t>Krista Longnecker, Woods Hole Oceanographic Institution</t>
-  </si>
-  <si>
-    <t>We thank Catherine Carmichael, Winifred Johnson, and Gretchen Swarr for assistance with sample collection and processing, and Joe Jennings for the analysis of inorganic nutrients. The help of the captain and crew of the R/V Knorr and the other cruise participants during the “DeepDOM” cruise is appreciated. This work supported by funding from the National Science Foundation.</t>
-  </si>
-  <si>
-    <t>(multiple publications)</t>
-  </si>
-  <si>
-    <t>viral_bact_counts</t>
-  </si>
-  <si>
-    <t>metabolites_dissolved</t>
-  </si>
-  <si>
-    <t>metabolites_particulate</t>
-  </si>
-  <si>
-    <t>We thank Catherine Carmichael, Winifred Johnson, and Gretchen Swarr for assistance with sample collection and processing. The help of the captain and crew of the R/V Knorr and the other cruise participants during the “DeepDOM” cruise is appreciated. This work supported by funding from the National Science Foundation.</t>
-  </si>
-  <si>
-    <t>Longnecker, K., L. Oswald, M. C. Kido Soule, G. A. Cutter and E. B. Kujawinski (2020). "Organic sulfur: a spatially variable and understudied component of marine organic matter." Limnology and Oceanography Letters 5: 305-312. DOI: 10.1002/lol2.10149.</t>
-  </si>
-  <si>
-    <t>Johnson, W. M., M. C. Kido Soule, K. Longnecker, M. P. Bhatia, S. J. Hallam, M. W. Lomas and E. B. Kujawinski (2023). "Particulate and dissolved metabolite distributions along a latitudinal transect of the western Atlantic Ocean." Limnology and Oceanography 68(2): 377-393. DOI: 10.1002/lno.12275.</t>
-  </si>
-  <si>
-    <t>Eggleston, E. M. and I. Hewson (2016). "Abundance of Two Pelagibacter ubique Bacteriophage Genotypes along a Latitudinal Transect in the North and South Atlantic Oceans." Frontiers in Microbiology 7. DOI: 10.3389/fmicb.2016.01534.</t>
-  </si>
-  <si>
-    <t>The authors would like to thank the crew and lab groups onboard the R/V Knorr KN210-04 cruise. Brent Gudenkauf provided invaluable assistance with viral and bacterial abundance counts. Thanks also to Samuel Byrne and Sheila Saia for statistical assistance, and Evan Howard for oxygen calibration. Support for this research was provided by NSF OCE-0961894. Funding for the cruise was provided by NSF OCE-1154320 to E. Kujawinski and K. Longnecker (WHOI), NSF OCE-1356964 and NSF OCE-1537111 as support for publication costs.</t>
-  </si>
-  <si>
-    <t>CTD</t>
-  </si>
-  <si>
-    <t>TOS</t>
+    <t>Consecutive cast number for the instrument.</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>Identification number of the sampling station</t>
+  </si>
+  <si>
+    <t>Date (UTC) given as 4-digit year - 2-digit month - 2-digit day</t>
+  </si>
+  <si>
+    <t>YYYYmmdd</t>
+  </si>
+  <si>
+    <t>Time (UTC) given as hour - minute</t>
+  </si>
+  <si>
+    <t>HHMM</t>
+  </si>
+  <si>
+    <t>The event number from the ELOG maintained during the cruise</t>
+  </si>
+  <si>
+    <t>Niskin bottle number</t>
+  </si>
+  <si>
+    <t>Pressure.</t>
+  </si>
+  <si>
+    <t>decibars (db)</t>
+  </si>
+  <si>
+    <t>lab_sticker</t>
+  </si>
+  <si>
+    <t>Lab identification number</t>
+  </si>
+  <si>
+    <t>vir_abund</t>
+  </si>
+  <si>
+    <t>Viral abundance</t>
+  </si>
+  <si>
+    <t>viral abundance per milliliter (per mL)</t>
+  </si>
+  <si>
+    <t>vir_abund_SE</t>
+  </si>
+  <si>
+    <t>Standard error associated with viral abundance</t>
+  </si>
+  <si>
+    <t>bact_abund</t>
+  </si>
+  <si>
+    <t>Bacterial abundance</t>
+  </si>
+  <si>
+    <t>bacterial abundance per milliliter (per mL)</t>
+  </si>
+  <si>
+    <t>bact_abund_SE</t>
+  </si>
+  <si>
+    <t>Standard error associated with bacterial abundance</t>
+  </si>
+  <si>
+    <t>VBR</t>
+  </si>
+  <si>
+    <t>Virus to bacteria ratio (virus:bacteria).</t>
+  </si>
+  <si>
+    <t>cast number</t>
+  </si>
+  <si>
+    <t>unitless</t>
+  </si>
+  <si>
+    <t>station identifier</t>
+  </si>
+  <si>
+    <t>date (UTC) in format yyyymmdd</t>
+  </si>
+  <si>
+    <t>time (UTC) in format HHMM</t>
+  </si>
+  <si>
+    <t>ISO_DateTime_UTC</t>
+  </si>
+  <si>
+    <t>ISO timestamp based on the ISO 8601:2004(E) standard in format YYYY-mm-ddTHH:MM:SS[.xx]Z (UTC)</t>
+  </si>
+  <si>
+    <t>DHBA</t>
+  </si>
+  <si>
+    <t>2,3-dihydroxybenzoic acid concentration</t>
+  </si>
+  <si>
+    <t>picomolar (pM)</t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>3-mercaptopropionate concentration</t>
+  </si>
+  <si>
+    <t>PABA</t>
+  </si>
+  <si>
+    <t>4-aminobenzoic acid concentration</t>
+  </si>
+  <si>
+    <t>PHBA</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzoic acid concentration</t>
+  </si>
+  <si>
+    <t>SAH</t>
+  </si>
+  <si>
+    <t>S-(5'-adenosyl)-L-homocysteine concentration</t>
+  </si>
+  <si>
+    <t>MTA</t>
+  </si>
+  <si>
+    <t>5-methylthioadenosine concentration</t>
+  </si>
+  <si>
+    <t>adenosine</t>
+  </si>
+  <si>
+    <t>adenosine concentration</t>
+  </si>
+  <si>
+    <t>biotin</t>
+  </si>
+  <si>
+    <t>biotin concentration</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>caffeine concentration</t>
+  </si>
+  <si>
+    <t>chitotriose</t>
+  </si>
+  <si>
+    <t>chitotriose concentration</t>
+  </si>
+  <si>
+    <t>vitamin_B12</t>
+  </si>
+  <si>
+    <t>cyanocobalamin concentration</t>
+  </si>
+  <si>
+    <t>PGA</t>
+  </si>
+  <si>
+    <t>D-(-)3-phosphoglyceric acid concentration</t>
+  </si>
+  <si>
+    <t>desthiobiotin</t>
+  </si>
+  <si>
+    <t>desthiobiotin concentration</t>
+  </si>
+  <si>
+    <t>folic_acid</t>
+  </si>
+  <si>
+    <t>folic acid concentration</t>
+  </si>
+  <si>
+    <t>glyphosate</t>
+  </si>
+  <si>
+    <t>glyphosate concentration</t>
+  </si>
+  <si>
+    <t>IAA</t>
+  </si>
+  <si>
+    <t>indole 3-acetic acid concentration</t>
+  </si>
+  <si>
+    <t>inosine</t>
+  </si>
+  <si>
+    <t>inosine concentration</t>
+  </si>
+  <si>
+    <t>glutathione</t>
+  </si>
+  <si>
+    <t>glutathione concentration</t>
+  </si>
+  <si>
+    <t>leucine</t>
+  </si>
+  <si>
+    <t>leucine concentration</t>
+  </si>
+  <si>
+    <t>Ac_Glu_OH</t>
+  </si>
+  <si>
+    <t>N-acetylglutamic acid concentration</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>NAD concentration</t>
+  </si>
+  <si>
+    <t>NADP</t>
+  </si>
+  <si>
+    <t>NADP concentration</t>
+  </si>
+  <si>
+    <t>pantothenic_acid</t>
+  </si>
+  <si>
+    <t>pantothenic acid concentration</t>
+  </si>
+  <si>
+    <t>phenylalanine</t>
+  </si>
+  <si>
+    <t>phenylalanine concentration</t>
+  </si>
+  <si>
+    <t>pyridoxine</t>
+  </si>
+  <si>
+    <t>pyridoxine concentration</t>
+  </si>
+  <si>
+    <t>riboflavin</t>
+  </si>
+  <si>
+    <t>riboflavin concentration</t>
+  </si>
+  <si>
+    <t>taurocholate</t>
+  </si>
+  <si>
+    <t>taurocholate concentration</t>
+  </si>
+  <si>
+    <t>thiamine</t>
+  </si>
+  <si>
+    <t>thiamine concentration</t>
+  </si>
+  <si>
+    <t>thymidine</t>
+  </si>
+  <si>
+    <t>thymidine concentration</t>
+  </si>
+  <si>
+    <t>tryptophan</t>
+  </si>
+  <si>
+    <t>tryptophan concentration</t>
+  </si>
+  <si>
+    <t>filter_type</t>
+  </si>
+  <si>
+    <t>filter type</t>
+  </si>
+  <si>
+    <t>DOXP</t>
+  </si>
+  <si>
+    <t>1-deoxy-D-xylulose-5-phosphate concentration</t>
+  </si>
+  <si>
+    <t>DHPS</t>
+  </si>
+  <si>
+    <t>2,3-dihydroxypropane-1-sulfonate concentration</t>
+  </si>
+  <si>
+    <t>AdoHcy</t>
+  </si>
+  <si>
+    <t>adenine</t>
+  </si>
+  <si>
+    <t>adenine concentration</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>adenosine 5'-monophosphate concentration</t>
+  </si>
+  <si>
+    <t>arginine</t>
+  </si>
+  <si>
+    <t>arginine concentration</t>
+  </si>
+  <si>
+    <t>aspartic_acid</t>
+  </si>
+  <si>
+    <t>aspartic acid concentration</t>
+  </si>
+  <si>
+    <t>betaine</t>
+  </si>
+  <si>
+    <t>betaine concentration</t>
+  </si>
+  <si>
+    <t>chitobiose</t>
+  </si>
+  <si>
+    <t>chitobiose concentration</t>
+  </si>
+  <si>
+    <t>ciliatine</t>
+  </si>
+  <si>
+    <t>ciliatine concentration</t>
+  </si>
+  <si>
+    <t>citrulline</t>
+  </si>
+  <si>
+    <t>citrulline concentration</t>
+  </si>
+  <si>
+    <t>cytosine</t>
+  </si>
+  <si>
+    <t>cytosine concentration</t>
+  </si>
+  <si>
+    <t>GlcN_6_P</t>
+  </si>
+  <si>
+    <t>D-glucosamine 6-phosphate concentration</t>
+  </si>
+  <si>
+    <t>DHAP</t>
+  </si>
+  <si>
+    <t>dihydroxyacetone phosphate concentration</t>
+  </si>
+  <si>
+    <t>DMSP</t>
+  </si>
+  <si>
+    <t>DMSP concentration</t>
+  </si>
+  <si>
+    <t>R5P</t>
+  </si>
+  <si>
+    <t>D-ribose 5-phosphate concentration</t>
+  </si>
+  <si>
+    <t>fosfomycin</t>
+  </si>
+  <si>
+    <t>fosfomycin concentration</t>
+  </si>
+  <si>
+    <t>fumaric_acid</t>
+  </si>
+  <si>
+    <t>fumaric acid concentration</t>
+  </si>
+  <si>
+    <t>G6P</t>
+  </si>
+  <si>
+    <t>glucose 6-phosphate concentration</t>
+  </si>
+  <si>
+    <t>glutamic_acid</t>
+  </si>
+  <si>
+    <t>glutamic acid concentration</t>
+  </si>
+  <si>
+    <t>glutamine</t>
+  </si>
+  <si>
+    <t>glutamine concentration</t>
+  </si>
+  <si>
+    <t>guanine</t>
+  </si>
+  <si>
+    <t>guanine concentration</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>inosine 5'-monophosphate concentration</t>
+  </si>
+  <si>
+    <t>cysteine</t>
+  </si>
+  <si>
+    <t>cysteine concentration</t>
+  </si>
+  <si>
+    <t>methionine</t>
+  </si>
+  <si>
+    <t>methionine concentration</t>
+  </si>
+  <si>
+    <t>GlcNAc</t>
+  </si>
+  <si>
+    <t>N-acetylglucosamine concentration</t>
+  </si>
+  <si>
+    <t>ornithine</t>
+  </si>
+  <si>
+    <t>ornithine concentration</t>
+  </si>
+  <si>
+    <t>orotic_acid</t>
+  </si>
+  <si>
+    <t>orotic acid concentration</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>proline concentration</t>
+  </si>
+  <si>
+    <t>sarcosine</t>
+  </si>
+  <si>
+    <t>sarcosine concentration</t>
+  </si>
+  <si>
+    <t>GPAT</t>
+  </si>
+  <si>
+    <t>sn-glycerol 3-phosphate concentration</t>
+  </si>
+  <si>
+    <t>taurine</t>
+  </si>
+  <si>
+    <t>taurine concentration</t>
+  </si>
+  <si>
+    <t>threonine</t>
+  </si>
+  <si>
+    <t>threonine concentration</t>
+  </si>
+  <si>
+    <t>uracil</t>
+  </si>
+  <si>
+    <t>uracil concentration</t>
+  </si>
+  <si>
+    <t>UMP</t>
+  </si>
+  <si>
+    <t>uridine 5'-monophosphate concentration</t>
+  </si>
+  <si>
+    <t>xanthine</t>
+  </si>
+  <si>
+    <t>xanthine concentration</t>
+  </si>
+  <si>
+    <t>station number</t>
+  </si>
+  <si>
+    <t>date_utc_YYYYMMDD_start</t>
+  </si>
+  <si>
+    <t>date, UTC, given as year – month – day</t>
+  </si>
+  <si>
+    <t>time_utc_HHMM_start</t>
+  </si>
+  <si>
+    <t>time, UTC, given as hour – minute</t>
+  </si>
+  <si>
+    <t>the event number from the ELOG maintained during the cruise</t>
+  </si>
+  <si>
+    <t>TOS_nM</t>
+  </si>
+  <si>
+    <t>total organic sulfur, in nM</t>
+  </si>
+  <si>
+    <t>nanomolar (nM)</t>
+  </si>
+  <si>
+    <t>TOS_sd</t>
+  </si>
+  <si>
+    <t>standard deviation for total organic sulfur, from averages of replicates where available</t>
+  </si>
+  <si>
+    <t>Identification number of the samling station.</t>
+  </si>
+  <si>
+    <t>Date (UTC) given as 4-digit year -- 2-digit month -- 2-digit day in&amp;nbs;YYYYmmdd format.</t>
+  </si>
+  <si>
+    <t>Time (UTC) given as hour -- minute.</t>
+  </si>
+  <si>
+    <t>The event number from the ELOG maintained during the cruise.</t>
+  </si>
+  <si>
+    <t>Pressure. (Originally called 'rDM'.)</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>Temperature from primary sensor on CTD. (Originally called 't090C'.)</t>
+  </si>
+  <si>
+    <t>degrees Celsius (ITS-90)</t>
+  </si>
+  <si>
+    <t>temp2</t>
+  </si>
+  <si>
+    <t>Temperature from secondary sensor on CTD. (Originally called 't190C'.)</t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>Salinity from primary sensor on CTD. (Originally called 'sal00'.)</t>
+  </si>
+  <si>
+    <t>Practical Salinity Units (PSU)</t>
+  </si>
+  <si>
+    <t>sal2</t>
+  </si>
+  <si>
+    <t>Salinity from secondary sensor on CTD. (Originally called 'sal11'.)</t>
+  </si>
+  <si>
+    <t>O2_mL_L</t>
+  </si>
+  <si>
+    <t>Oxygen from SBE43</t>
+  </si>
+  <si>
+    <t>milliliters per liter (mL/L)</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>Density from primary sensor on CTD. (Originally called 'density00'.)</t>
+  </si>
+  <si>
+    <t>kilograms per cubic meter (kg/m^3)</t>
+  </si>
+  <si>
+    <t>density2</t>
+  </si>
+  <si>
+    <t>Density from secondary sensor on CTD. (Originally called 'density11'.)</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>Latitude.</t>
+  </si>
+  <si>
+    <t>decimal degrees</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Longitude.</t>
+  </si>
+  <si>
+    <t>fluor</t>
+  </si>
+  <si>
+    <t>Fluorescence from WET Labs ECO-AFL/FL. (Originally called 'flECO_AFL'.)</t>
+  </si>
+  <si>
+    <t>milligrams per cubic meter (mg/m^3)</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>Beam transmission from WET Labs C-Star. (Originally called 'CStarTr0'.)</t>
+  </si>
+  <si>
+    <t>percent (%)</t>
+  </si>
+  <si>
+    <t>turbidity</t>
+  </si>
+  <si>
+    <t>Turbidity from WET Labs ECO. (Originally called 'tubWETntu0'.)</t>
+  </si>
+  <si>
+    <t>Nephelometric Turbidity Units (NTU)</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>PAR  irradiance from BioshericalLicor.</t>
+  </si>
+  <si>
+    <t>microEinsteins per square meter per second (μE/m2-sec)</t>
+  </si>
+  <si>
+    <t>spar</t>
+  </si>
+  <si>
+    <t>SPAR  surface irradiance.</t>
+  </si>
+  <si>
+    <t>sound_vel</t>
+  </si>
+  <si>
+    <t>Sound velociy. (Originally called 'svCM1'.)</t>
+  </si>
+  <si>
+    <t>meters per second (m/s) (Chen-Millero)</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>Data quality flag.</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>KN210-04, cruise, in situ, insitu, in-situ, Western Atlantic Ocean, observation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +907,11 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,12 +921,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -268,16 +969,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212F2188-CDA4-45F0-9748-84A3C71A912B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -623,22 +1326,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -647,11 +1350,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297CF85B-91C8-4245-8442-626368271EA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -663,128 +1366,128 @@
     <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
+    <row r="1" spans="1:5" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>45</v>
+      <c r="A3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
+      <c r="A4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>47</v>
+      <c r="A5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
+      <c r="A6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -796,7 +1499,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -814,419 +1517,419 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" customHeight="1">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" customHeight="1">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" customHeight="1">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" customHeight="1">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" customHeight="1">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" customHeight="1">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" customHeight="1">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" customHeight="1">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" ht="15.5">
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="7:7" ht="15.5">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="7:7" ht="15.5">
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="7:7" ht="15.5">
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="7:7" ht="15.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="7:7" ht="15.5" customHeight="1">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="7:7" ht="15.5">
+    <row r="22" spans="7:7" ht="15.5" customHeight="1">
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="7:7" ht="15.5">
+    <row r="23" spans="7:7" ht="15.5" customHeight="1">
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="7:7" ht="15.5">
+    <row r="24" spans="7:7" ht="15.5" customHeight="1">
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="7:7" ht="15.5">
+    <row r="25" spans="7:7" ht="15.5" customHeight="1">
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="7:7" ht="15.5">
+    <row r="26" spans="7:7" ht="15.5" customHeight="1">
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="7:7" ht="15.5">
+    <row r="27" spans="7:7" ht="15.5" customHeight="1">
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="7:7" ht="15.5">
+    <row r="28" spans="7:7" ht="15.5" customHeight="1">
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="7:7" ht="15.5">
+    <row r="29" spans="7:7" ht="15.5" customHeight="1">
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="7:7" ht="15.5">
+    <row r="30" spans="7:7" ht="15.5" customHeight="1">
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="7:7" ht="15.5">
+    <row r="31" spans="7:7" ht="15.5" customHeight="1">
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="7:7" ht="15.5">
+    <row r="32" spans="7:7" ht="15.5" customHeight="1">
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="7:7" ht="15.5">
+    <row r="33" spans="7:7" ht="15.5" customHeight="1">
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="7:7" ht="15.5">
+    <row r="34" spans="7:7" ht="15.5" customHeight="1">
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="7:7" ht="15.5">
+    <row r="35" spans="7:7" ht="15.5" customHeight="1">
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="7:7" ht="15.5">
+    <row r="36" spans="7:7" ht="15.5" customHeight="1">
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="7:7" ht="15.5">
+    <row r="37" spans="7:7" ht="15.5" customHeight="1">
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="7:7" ht="15.5">
+    <row r="38" spans="7:7" ht="15.5" customHeight="1">
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="7:7" ht="15.5">
+    <row r="39" spans="7:7" ht="15.5" customHeight="1">
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="7:7" ht="15.5">
+    <row r="40" spans="7:7" ht="15.5" customHeight="1">
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="7:7" ht="15.5">
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="7:7" ht="15.5">
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="7:7" ht="15.5">
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="7:7" ht="15.5">
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="7:7" ht="15.5">
+    <row r="41" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="7:7" ht="15.5" customHeight="1">
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="7:7" ht="15.5">
+    <row r="46" spans="7:7" ht="15.5" customHeight="1">
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="7:7" ht="15.5">
+    <row r="47" spans="7:7" ht="15.5" customHeight="1">
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="7:7" ht="15.5">
+    <row r="48" spans="7:7" ht="15.5" customHeight="1">
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="7:7" ht="15.5">
+    <row r="49" spans="7:7" ht="15.5" customHeight="1">
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="7:7" ht="15.5">
+    <row r="50" spans="7:7" ht="15.5" customHeight="1">
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="7:7" ht="15.5">
+    <row r="51" spans="7:7" ht="15.5" customHeight="1">
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="7:7" ht="15.5">
+    <row r="52" spans="7:7" ht="15.5" customHeight="1">
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="7:7" ht="15.5">
+    <row r="53" spans="7:7" ht="15.5" customHeight="1">
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="7:7" ht="15.5">
+    <row r="54" spans="7:7" ht="15.5" customHeight="1">
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="7:7" ht="15.5">
+    <row r="55" spans="7:7" ht="15.5" customHeight="1">
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="7:7" ht="15.5">
+    <row r="56" spans="7:7" ht="15.5" customHeight="1">
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="7:7" ht="15.5">
+    <row r="57" spans="7:7" ht="15.5" customHeight="1">
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="7:7" ht="15.5">
+    <row r="58" spans="7:7" ht="15.5" customHeight="1">
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="7:7" ht="15.5">
+    <row r="59" spans="7:7" ht="15.5" customHeight="1">
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="7:7" ht="15.5">
+    <row r="60" spans="7:7" ht="15.5" customHeight="1">
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="7:7" ht="15.5">
+    <row r="61" spans="7:7" ht="15.5" customHeight="1">
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="7:7" ht="15.5">
+    <row r="62" spans="7:7" ht="15.5" customHeight="1">
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="7:7" ht="15.5">
+    <row r="63" spans="7:7" ht="15.5" customHeight="1">
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="7:7" ht="15.5">
+    <row r="64" spans="7:7" ht="15.5" customHeight="1">
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="7:7" ht="15.5">
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="7:7" ht="15.5">
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="7:7" ht="15.5">
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="7:7" ht="15.5">
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="7:7" ht="15.5">
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="7:7" ht="15.5">
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="7:7" ht="15.5">
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="7:7" ht="15.5">
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="7:7" ht="15.5">
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="7:7" ht="15.5">
-      <c r="G74" s="3"/>
+    <row r="65" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="7:7" ht="15.5" customHeight="1">
+      <c r="G74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1234,236 +1937,3587 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45095D9-EA9B-4B9F-9E66-5FF547F3F6A8}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4793E811-9171-4BEC-B324-B0E20319C12F}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD90AD54-1F09-4544-A65A-CF3ECEC09E99}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G2" sqref="G2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="5" width="16.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39AB8BE-BB69-4DF3-9A21-215F22197854}">
-  <dimension ref="A1:J1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="I2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B508D6-4999-4C42-962B-E3F785D0F78B}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CMAP_variableMetadata_additions.xlsx
+++ b/CMAP_variableMetadata_additions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klongnecker\Documents\Dropbox\GitHub_espresso\DeepDOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub_niskin\DeepDOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0954E6-41AB-4030-B356-8107FE6781EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD4916-706E-4FF2-9330-48B33FBD96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28230" yWindow="4635" windowWidth="27000" windowHeight="15030" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="287">
   <si>
     <t>CMAP has some additional metadata they want for each variable measured. There are so many that it makes the most sense to make a separate Excel file and read in the details, no good way to automate this.</t>
   </si>
@@ -140,9 +140,6 @@
     <t>cast</t>
   </si>
   <si>
-    <t>metadata</t>
-  </si>
-  <si>
     <t>KN210-04,  bio, biogeo, biogeochemistry, biology, Bottle, cruise, Discrete, in situ, insitu, in-situ, Western Atlantic Ocean, observation</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>press</t>
   </si>
   <si>
-    <t>physical</t>
-  </si>
-  <si>
     <t>bots</t>
   </si>
   <si>
@@ -873,6 +867,27 @@
   </si>
   <si>
     <t>KN210-04, cruise, in situ, insitu, in-situ, Western Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>Uncategorized</t>
+  </si>
+  <si>
+    <t>High Temperature Combustion</t>
+  </si>
+  <si>
+    <t>Autoanalyzer</t>
+  </si>
+  <si>
+    <t>Epifluorescent Microscope</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Mass Spectrometer</t>
+  </si>
+  <si>
+    <t>Physics</t>
   </si>
 </sst>
 </file>
@@ -996,9 +1011,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1036,9 +1051,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,26 +1086,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1123,26 +1121,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1322,7 +1303,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1357,13 +1338,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1">
@@ -1495,24 +1476,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
-    <col min="5" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1551,384 +1532,429 @@
       <c r="A2" t="s">
         <v>36</v>
       </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
+      <c r="C9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" t="s">
+        <v>280</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" customHeight="1">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="C11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A16" t="s">
-        <v>54</v>
+      <c r="C16" t="s">
+        <v>281</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" ht="15.5" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" ht="15.6" customHeight="1">
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="7:7" ht="15.5" customHeight="1">
+    <row r="18" spans="7:7" ht="15.6" customHeight="1">
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="7:7" ht="15.5" customHeight="1">
+    <row r="19" spans="7:7" ht="15.6" customHeight="1">
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="7:7" ht="15.5" customHeight="1">
+    <row r="20" spans="7:7" ht="15.6" customHeight="1">
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="7:7" ht="15.5" customHeight="1">
+    <row r="21" spans="7:7" ht="15.6" customHeight="1">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="7:7" ht="15.5" customHeight="1">
+    <row r="22" spans="7:7" ht="15.6" customHeight="1">
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="7:7" ht="15.5" customHeight="1">
+    <row r="23" spans="7:7" ht="15.6" customHeight="1">
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="7:7" ht="15.5" customHeight="1">
+    <row r="24" spans="7:7" ht="15.6" customHeight="1">
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="7:7" ht="15.5" customHeight="1">
+    <row r="25" spans="7:7" ht="15.6" customHeight="1">
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="7:7" ht="15.5" customHeight="1">
+    <row r="26" spans="7:7" ht="15.6" customHeight="1">
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="7:7" ht="15.5" customHeight="1">
+    <row r="27" spans="7:7" ht="15.6" customHeight="1">
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="7:7" ht="15.5" customHeight="1">
+    <row r="28" spans="7:7" ht="15.6" customHeight="1">
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="7:7" ht="15.5" customHeight="1">
+    <row r="29" spans="7:7" ht="15.6" customHeight="1">
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="7:7" ht="15.5" customHeight="1">
+    <row r="30" spans="7:7" ht="15.6" customHeight="1">
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="7:7" ht="15.5" customHeight="1">
+    <row r="31" spans="7:7" ht="15.6" customHeight="1">
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="7:7" ht="15.5" customHeight="1">
+    <row r="32" spans="7:7" ht="15.6" customHeight="1">
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="7:7" ht="15.5" customHeight="1">
+    <row r="33" spans="7:7" ht="15.6" customHeight="1">
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="7:7" ht="15.5" customHeight="1">
+    <row r="34" spans="7:7" ht="15.6" customHeight="1">
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="7:7" ht="15.5" customHeight="1">
+    <row r="35" spans="7:7" ht="15.6" customHeight="1">
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="7:7" ht="15.5" customHeight="1">
+    <row r="36" spans="7:7" ht="15.6" customHeight="1">
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="7:7" ht="15.5" customHeight="1">
+    <row r="37" spans="7:7" ht="15.6" customHeight="1">
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="7:7" ht="15.5" customHeight="1">
+    <row r="38" spans="7:7" ht="15.6" customHeight="1">
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="7:7" ht="15.5" customHeight="1">
+    <row r="39" spans="7:7" ht="15.6" customHeight="1">
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="7:7" ht="15.5" customHeight="1">
+    <row r="40" spans="7:7" ht="15.6" customHeight="1">
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="7:7" ht="15.5" customHeight="1">
+    <row r="41" spans="7:7" ht="15.6" customHeight="1">
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="7:7" ht="15.5" customHeight="1">
+    <row r="42" spans="7:7" ht="15.6" customHeight="1">
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="7:7" ht="15.5" customHeight="1">
+    <row r="43" spans="7:7" ht="15.6" customHeight="1">
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="7:7" ht="15.5" customHeight="1">
+    <row r="44" spans="7:7" ht="15.6" customHeight="1">
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="7:7" ht="15.5" customHeight="1">
+    <row r="45" spans="7:7" ht="15.6" customHeight="1">
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="7:7" ht="15.5" customHeight="1">
+    <row r="46" spans="7:7" ht="15.6" customHeight="1">
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="7:7" ht="15.5" customHeight="1">
+    <row r="47" spans="7:7" ht="15.6" customHeight="1">
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="7:7" ht="15.5" customHeight="1">
+    <row r="48" spans="7:7" ht="15.6" customHeight="1">
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="7:7" ht="15.5" customHeight="1">
+    <row r="49" spans="7:7" ht="15.6" customHeight="1">
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="7:7" ht="15.5" customHeight="1">
+    <row r="50" spans="7:7" ht="15.6" customHeight="1">
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="7:7" ht="15.5" customHeight="1">
+    <row r="51" spans="7:7" ht="15.6" customHeight="1">
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="7:7" ht="15.5" customHeight="1">
+    <row r="52" spans="7:7" ht="15.6" customHeight="1">
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="7:7" ht="15.5" customHeight="1">
+    <row r="53" spans="7:7" ht="15.6" customHeight="1">
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="7:7" ht="15.5" customHeight="1">
+    <row r="54" spans="7:7" ht="15.6" customHeight="1">
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="7:7" ht="15.5" customHeight="1">
+    <row r="55" spans="7:7" ht="15.6" customHeight="1">
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="7:7" ht="15.5" customHeight="1">
+    <row r="56" spans="7:7" ht="15.6" customHeight="1">
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="7:7" ht="15.5" customHeight="1">
+    <row r="57" spans="7:7" ht="15.6" customHeight="1">
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="7:7" ht="15.5" customHeight="1">
+    <row r="58" spans="7:7" ht="15.6" customHeight="1">
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="7:7" ht="15.5" customHeight="1">
+    <row r="59" spans="7:7" ht="15.6" customHeight="1">
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="7:7" ht="15.5" customHeight="1">
+    <row r="60" spans="7:7" ht="15.6" customHeight="1">
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="7:7" ht="15.5" customHeight="1">
+    <row r="61" spans="7:7" ht="15.6" customHeight="1">
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="7:7" ht="15.5" customHeight="1">
+    <row r="62" spans="7:7" ht="15.6" customHeight="1">
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="7:7" ht="15.5" customHeight="1">
+    <row r="63" spans="7:7" ht="15.6" customHeight="1">
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="7:7" ht="15.5" customHeight="1">
+    <row r="64" spans="7:7" ht="15.6" customHeight="1">
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="7:7" ht="15.5" customHeight="1">
+    <row r="65" spans="7:7" ht="15.6" customHeight="1">
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="7:7" ht="15.5" customHeight="1">
+    <row r="66" spans="7:7" ht="15.6" customHeight="1">
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="7:7" ht="15.5" customHeight="1">
+    <row r="67" spans="7:7" ht="15.6" customHeight="1">
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="7:7" ht="15.5" customHeight="1">
+    <row r="68" spans="7:7" ht="15.6" customHeight="1">
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="7:7" ht="15.5" customHeight="1">
+    <row r="69" spans="7:7" ht="15.6" customHeight="1">
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="7:7" ht="15.5" customHeight="1">
+    <row r="70" spans="7:7" ht="15.6" customHeight="1">
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="7:7" ht="15.5" customHeight="1">
+    <row r="71" spans="7:7" ht="15.6" customHeight="1">
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="7:7" ht="15.5" customHeight="1">
+    <row r="72" spans="7:7" ht="15.6" customHeight="1">
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="7:7" ht="15.5" customHeight="1">
+    <row r="73" spans="7:7" ht="15.6" customHeight="1">
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="7:7" ht="15.5" customHeight="1">
+    <row r="74" spans="7:7" ht="15.6" customHeight="1">
       <c r="G74" s="2"/>
     </row>
   </sheetData>
@@ -1941,10 +1967,22 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="121.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
@@ -1983,337 +2021,376 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>280</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2325,11 +2402,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="121.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
@@ -2368,935 +2457,1043 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>285</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>285</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>285</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>285</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>285</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>285</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>285</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>285</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>285</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>285</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>285</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>285</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>285</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>285</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>285</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>285</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>285</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>285</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>285</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3308,13 +3505,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3354,1319 +3555,1517 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>285</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>285</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>285</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>285</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>285</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>285</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>285</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="C19" t="s">
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>285</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>285</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>285</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>285</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>285</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>285</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>285</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>285</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>285</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>285</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>285</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>285</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>285</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="C39" t="s">
+        <v>285</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>285</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>285</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="C42" t="s">
+        <v>285</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>285</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="C44" t="s">
+        <v>285</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>285</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
+        <v>285</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>285</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>285</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="C49" t="s">
+        <v>285</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="C50" t="s">
+        <v>285</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>285</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="C52" t="s">
+        <v>285</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="C53" t="s">
+        <v>285</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>285</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>285</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="C56" t="s">
+        <v>285</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>285</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>285</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>207</v>
+      </c>
+      <c r="C59" t="s">
+        <v>285</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="C60" t="s">
+        <v>285</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="C61" t="s">
+        <v>285</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="C62" t="s">
+        <v>285</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>285</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>285</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="C65" t="s">
+        <v>285</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="C66" t="s">
+        <v>285</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="C67" t="s">
+        <v>285</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4679,10 +5078,22 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="121.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
@@ -4721,181 +5132,202 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" t="s">
         <v>228</v>
       </c>
-      <c r="B7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" t="s">
-        <v>230</v>
-      </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4907,11 +5339,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
@@ -4950,571 +5394,637 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>238</v>
       </c>
-      <c r="B8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" t="s">
-        <v>240</v>
-      </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>243</v>
       </c>
-      <c r="B10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" t="s">
-        <v>245</v>
-      </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>248</v>
       </c>
-      <c r="B12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" t="s">
-        <v>250</v>
-      </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>251</v>
       </c>
-      <c r="B13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" t="s">
-        <v>253</v>
-      </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>256</v>
       </c>
-      <c r="B15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" t="s">
-        <v>258</v>
-      </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>261</v>
       </c>
-      <c r="B17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" t="s">
-        <v>263</v>
-      </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>264</v>
       </c>
-      <c r="B18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" t="s">
-        <v>266</v>
-      </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>267</v>
       </c>
-      <c r="B19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" t="s">
-        <v>269</v>
-      </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>270</v>
       </c>
-      <c r="B20" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" t="s">
-        <v>272</v>
-      </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>275</v>
       </c>
-      <c r="B22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" t="s">
-        <v>277</v>
-      </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+      <c r="C23" t="s">
+        <v>280</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/CMAP_variableMetadata_additions.xlsx
+++ b/CMAP_variableMetadata_additions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub_niskin\DeepDOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD4916-706E-4FF2-9330-48B33FBD96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B266056-D3A9-4E2E-99D4-4F531B9A1328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28230" yWindow="4635" windowWidth="27000" windowHeight="15030" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28230" yWindow="4635" windowWidth="27000" windowHeight="15030" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -839,9 +839,6 @@
     <t>PAR  irradiance from BioshericalLicor.</t>
   </si>
   <si>
-    <t>microEinsteins per square meter per second (μE/m2-sec)</t>
-  </si>
-  <si>
     <t>spar</t>
   </si>
   <si>
@@ -888,6 +885,9 @@
   </si>
   <si>
     <t>Physics</t>
+  </si>
+  <si>
+    <t>microEinsteins per square meter per sec(μE/m2-sec)</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1533,10 +1533,10 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1652,10 +1652,10 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>46</v>
@@ -1686,7 +1686,7 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>46</v>
@@ -1703,7 +1703,7 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>46</v>
@@ -1720,7 +1720,7 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>46</v>
@@ -1737,7 +1737,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>46</v>
@@ -1754,7 +1754,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>46</v>
@@ -1771,7 +1771,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>46</v>
@@ -2024,7 +2024,7 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -2036,7 +2036,7 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -2065,7 +2065,7 @@
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -2094,7 +2094,7 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -2123,7 +2123,7 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -2152,7 +2152,7 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -2181,7 +2181,7 @@
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -2239,7 +2239,7 @@
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -2268,7 +2268,7 @@
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2285,7 +2285,7 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
@@ -2297,7 +2297,7 @@
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2314,7 +2314,7 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D12" t="s">
         <v>74</v>
@@ -2326,7 +2326,7 @@
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2343,7 +2343,7 @@
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" t="s">
         <v>74</v>
@@ -2355,7 +2355,7 @@
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2372,7 +2372,7 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -2384,7 +2384,7 @@
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2460,7 +2460,7 @@
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -2472,7 +2472,7 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -2501,7 +2501,7 @@
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -2530,7 +2530,7 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -2559,7 +2559,7 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -2588,7 +2588,7 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -2617,7 +2617,7 @@
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
         <v>88</v>
@@ -2663,7 +2663,7 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
         <v>88</v>
@@ -2692,7 +2692,7 @@
         <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
         <v>88</v>
@@ -2721,7 +2721,7 @@
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
         <v>88</v>
@@ -2750,7 +2750,7 @@
         <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
@@ -2779,7 +2779,7 @@
         <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -2808,7 +2808,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
@@ -2837,7 +2837,7 @@
         <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" t="s">
         <v>88</v>
@@ -2866,7 +2866,7 @@
         <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
@@ -2895,7 +2895,7 @@
         <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
@@ -2924,7 +2924,7 @@
         <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
         <v>88</v>
@@ -2953,7 +2953,7 @@
         <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
         <v>88</v>
@@ -2982,7 +2982,7 @@
         <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
@@ -3011,7 +3011,7 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" t="s">
         <v>88</v>
@@ -3040,7 +3040,7 @@
         <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
         <v>88</v>
@@ -3069,7 +3069,7 @@
         <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s">
         <v>88</v>
@@ -3098,7 +3098,7 @@
         <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -3127,7 +3127,7 @@
         <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
@@ -3156,7 +3156,7 @@
         <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
@@ -3185,7 +3185,7 @@
         <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
@@ -3214,7 +3214,7 @@
         <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D28" t="s">
         <v>88</v>
@@ -3243,7 +3243,7 @@
         <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
@@ -3272,7 +3272,7 @@
         <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -3301,7 +3301,7 @@
         <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
         <v>88</v>
@@ -3330,7 +3330,7 @@
         <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D32" t="s">
         <v>88</v>
@@ -3359,7 +3359,7 @@
         <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
@@ -3388,7 +3388,7 @@
         <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D34" t="s">
         <v>88</v>
@@ -3417,7 +3417,7 @@
         <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
@@ -3446,7 +3446,7 @@
         <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -3475,7 +3475,7 @@
         <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
@@ -3558,13 +3558,13 @@
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3604,13 +3604,13 @@
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3650,13 +3650,13 @@
         <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
         <v>88</v>
@@ -3742,7 +3742,7 @@
         <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
         <v>88</v>
@@ -3765,7 +3765,7 @@
         <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
         <v>88</v>
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
@@ -3811,7 +3811,7 @@
         <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3834,7 +3834,7 @@
         <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
@@ -3857,7 +3857,7 @@
         <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" t="s">
         <v>88</v>
@@ -3880,7 +3880,7 @@
         <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
@@ -3903,7 +3903,7 @@
         <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
@@ -3926,7 +3926,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
         <v>88</v>
@@ -3949,7 +3949,7 @@
         <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
         <v>88</v>
@@ -3972,7 +3972,7 @@
         <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
         <v>88</v>
@@ -3995,7 +3995,7 @@
         <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" t="s">
         <v>88</v>
@@ -4018,7 +4018,7 @@
         <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
         <v>88</v>
@@ -4041,7 +4041,7 @@
         <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s">
         <v>88</v>
@@ -4064,7 +4064,7 @@
         <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -4087,7 +4087,7 @@
         <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
@@ -4110,7 +4110,7 @@
         <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
@@ -4133,7 +4133,7 @@
         <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
@@ -4156,7 +4156,7 @@
         <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D28" t="s">
         <v>88</v>
@@ -4179,7 +4179,7 @@
         <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
@@ -4202,7 +4202,7 @@
         <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -4225,7 +4225,7 @@
         <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
         <v>88</v>
@@ -4248,7 +4248,7 @@
         <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D32" t="s">
         <v>88</v>
@@ -4271,7 +4271,7 @@
         <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
@@ -4294,7 +4294,7 @@
         <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D34" t="s">
         <v>88</v>
@@ -4317,7 +4317,7 @@
         <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
@@ -4340,7 +4340,7 @@
         <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -4363,7 +4363,7 @@
         <v>183</v>
       </c>
       <c r="C37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
@@ -4386,7 +4386,7 @@
         <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
@@ -4409,7 +4409,7 @@
         <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
@@ -4432,7 +4432,7 @@
         <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D40" t="s">
         <v>88</v>
@@ -4455,7 +4455,7 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
         <v>88</v>
@@ -4478,7 +4478,7 @@
         <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
@@ -4501,7 +4501,7 @@
         <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D43" t="s">
         <v>88</v>
@@ -4524,7 +4524,7 @@
         <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
         <v>88</v>
@@ -4547,7 +4547,7 @@
         <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D45" t="s">
         <v>88</v>
@@ -4570,7 +4570,7 @@
         <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
         <v>88</v>
@@ -4593,7 +4593,7 @@
         <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D47" t="s">
         <v>88</v>
@@ -4616,7 +4616,7 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
         <v>88</v>
@@ -4639,7 +4639,7 @@
         <v>197</v>
       </c>
       <c r="C49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D49" t="s">
         <v>88</v>
@@ -4662,7 +4662,7 @@
         <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D50" t="s">
         <v>88</v>
@@ -4685,7 +4685,7 @@
         <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D51" t="s">
         <v>88</v>
@@ -4708,7 +4708,7 @@
         <v>201</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D52" t="s">
         <v>88</v>
@@ -4731,7 +4731,7 @@
         <v>203</v>
       </c>
       <c r="C53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D53" t="s">
         <v>88</v>
@@ -4754,7 +4754,7 @@
         <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D54" t="s">
         <v>88</v>
@@ -4777,7 +4777,7 @@
         <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D55" t="s">
         <v>88</v>
@@ -4800,7 +4800,7 @@
         <v>205</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D56" t="s">
         <v>88</v>
@@ -4823,7 +4823,7 @@
         <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
         <v>88</v>
@@ -4846,7 +4846,7 @@
         <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D58" t="s">
         <v>88</v>
@@ -4869,7 +4869,7 @@
         <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D59" t="s">
         <v>88</v>
@@ -4892,7 +4892,7 @@
         <v>209</v>
       </c>
       <c r="C60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D60" t="s">
         <v>88</v>
@@ -4915,7 +4915,7 @@
         <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D61" t="s">
         <v>88</v>
@@ -4938,7 +4938,7 @@
         <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
@@ -4961,7 +4961,7 @@
         <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D63" t="s">
         <v>88</v>
@@ -4984,7 +4984,7 @@
         <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D64" t="s">
         <v>88</v>
@@ -5007,7 +5007,7 @@
         <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D65" t="s">
         <v>88</v>
@@ -5030,7 +5030,7 @@
         <v>217</v>
       </c>
       <c r="C66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D66" t="s">
         <v>88</v>
@@ -5053,7 +5053,7 @@
         <v>219</v>
       </c>
       <c r="C67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
@@ -5135,7 +5135,7 @@
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -5147,7 +5147,7 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -5176,7 +5176,7 @@
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -5205,7 +5205,7 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -5234,7 +5234,7 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -5263,7 +5263,7 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
         <v>228</v>
@@ -5309,7 +5309,7 @@
         <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
         <v>228</v>
@@ -5321,7 +5321,7 @@
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5339,8 +5339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5397,7 +5397,7 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -5409,13 +5409,13 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5426,7 +5426,7 @@
         <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -5438,13 +5438,13 @@
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5455,7 +5455,7 @@
         <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -5467,13 +5467,13 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5484,7 +5484,7 @@
         <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -5496,13 +5496,13 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5513,7 +5513,7 @@
         <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -5525,13 +5525,13 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5554,13 +5554,13 @@
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5583,13 +5583,13 @@
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5612,13 +5612,13 @@
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5641,13 +5641,13 @@
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5670,13 +5670,13 @@
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5699,13 +5699,13 @@
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5728,13 +5728,13 @@
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5757,13 +5757,13 @@
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5786,13 +5786,13 @@
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5815,13 +5815,13 @@
         <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5844,13 +5844,13 @@
         <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5873,13 +5873,13 @@
         <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5902,13 +5902,13 @@
         <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5922,7 +5922,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="E20" t="s">
         <v>55</v>
@@ -5931,27 +5931,27 @@
         <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" t="s">
         <v>271</v>
-      </c>
-      <c r="B21" t="s">
-        <v>272</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
         <v>55</v>
@@ -5960,27 +5960,27 @@
         <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" t="s">
         <v>273</v>
-      </c>
-      <c r="B22" t="s">
-        <v>274</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
         <v>55</v>
@@ -5989,24 +5989,24 @@
         <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" t="s">
         <v>276</v>
       </c>
-      <c r="B23" t="s">
-        <v>277</v>
-      </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -6018,13 +6018,13 @@
         <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/CMAP_variableMetadata_additions.xlsx
+++ b/CMAP_variableMetadata_additions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub_niskin\DeepDOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B266056-D3A9-4E2E-99D4-4F531B9A1328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2051F88-8A59-4305-8C2A-434A9D88A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28230" yWindow="4635" windowWidth="27000" windowHeight="15030" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25995" yWindow="3825" windowWidth="24090" windowHeight="16605" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="287">
   <si>
     <t>CMAP has some additional metadata they want for each variable measured. There are so many that it makes the most sense to make a separate Excel file and read in the details, no good way to automate this.</t>
   </si>
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2477,9 +2477,6 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -2506,9 +2503,6 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -2535,9 +2529,6 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -2564,9 +2555,6 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -2593,9 +2581,6 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
@@ -2622,9 +2607,6 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -2651,9 +2633,6 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -2680,9 +2659,6 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -2709,9 +2685,6 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
@@ -2738,9 +2711,6 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -2767,9 +2737,6 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -2796,9 +2763,6 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -2825,9 +2789,6 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
@@ -2854,9 +2815,6 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
@@ -2883,11 +2841,8 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -2912,11 +2867,8 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -2941,11 +2893,8 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -2970,11 +2919,8 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2999,11 +2945,8 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -3028,11 +2971,8 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -3057,11 +2997,8 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -3086,11 +3023,8 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -3115,11 +3049,8 @@
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -3144,11 +3075,8 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -3173,11 +3101,8 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -3202,11 +3127,8 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -3231,11 +3153,8 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -3260,11 +3179,8 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -3289,11 +3205,8 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -3318,11 +3231,8 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -3347,11 +3257,8 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -3376,11 +3283,8 @@
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -3405,11 +3309,8 @@
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -3434,11 +3335,8 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -3463,11 +3361,8 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -3491,9 +3386,6 @@
       </c>
       <c r="H37">
         <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
